--- a/Code/Results/Cases/Case_4_187/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_187/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9980505292557293</v>
+        <v>1.029435166089484</v>
       </c>
       <c r="D2">
-        <v>1.015578096078525</v>
+        <v>1.03211475504626</v>
       </c>
       <c r="E2">
-        <v>1.015326239839228</v>
+        <v>1.043054511913578</v>
       </c>
       <c r="F2">
-        <v>1.021285262984616</v>
+        <v>1.050769313958604</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042022035679468</v>
+        <v>1.032351946200911</v>
       </c>
       <c r="J2">
-        <v>1.020289705414918</v>
+        <v>1.034581957923013</v>
       </c>
       <c r="K2">
-        <v>1.026824586927964</v>
+        <v>1.034920918727935</v>
       </c>
       <c r="L2">
-        <v>1.026576106534664</v>
+        <v>1.045829459470927</v>
       </c>
       <c r="M2">
-        <v>1.032455815702658</v>
+        <v>1.053522671487985</v>
       </c>
       <c r="N2">
-        <v>1.010592752394284</v>
+        <v>1.015510482260581</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.002315021195712</v>
+        <v>1.030346582390139</v>
       </c>
       <c r="D3">
-        <v>1.01850667616073</v>
+        <v>1.032755599385765</v>
       </c>
       <c r="E3">
-        <v>1.019249472050056</v>
+        <v>1.043952239349654</v>
       </c>
       <c r="F3">
-        <v>1.025526179185257</v>
+        <v>1.051742300405804</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042908253907309</v>
+        <v>1.032481573572191</v>
       </c>
       <c r="J3">
-        <v>1.022742774733113</v>
+        <v>1.035134599675472</v>
       </c>
       <c r="K3">
-        <v>1.028908112484475</v>
+        <v>1.035370917438684</v>
       </c>
       <c r="L3">
-        <v>1.029641837098282</v>
+        <v>1.046537916838256</v>
       </c>
       <c r="M3">
-        <v>1.035842542129733</v>
+        <v>1.054307757285233</v>
       </c>
       <c r="N3">
-        <v>1.011424849279279</v>
+        <v>1.015695968578231</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.005021305822918</v>
+        <v>1.030936910044096</v>
       </c>
       <c r="D4">
-        <v>1.020367285012984</v>
+        <v>1.03317053276797</v>
       </c>
       <c r="E4">
-        <v>1.02174466540694</v>
+        <v>1.044534067121263</v>
       </c>
       <c r="F4">
-        <v>1.028222953997341</v>
+        <v>1.052372883002963</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04346035695065</v>
+        <v>1.032564235942723</v>
       </c>
       <c r="J4">
-        <v>1.024297432436673</v>
+        <v>1.035492155796342</v>
       </c>
       <c r="K4">
-        <v>1.030225955653536</v>
+        <v>1.035661674020689</v>
       </c>
       <c r="L4">
-        <v>1.031587548123583</v>
+        <v>1.046996639900349</v>
       </c>
       <c r="M4">
-        <v>1.037992279768997</v>
+        <v>1.0548161355033</v>
       </c>
       <c r="N4">
-        <v>1.011951921415322</v>
+        <v>1.015815912631947</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.006146739906566</v>
+        <v>1.0311852215589</v>
       </c>
       <c r="D5">
-        <v>1.021141485511211</v>
+        <v>1.033345032480929</v>
       </c>
       <c r="E5">
-        <v>1.022783597052672</v>
+        <v>1.04477889062356</v>
       </c>
       <c r="F5">
-        <v>1.029345713094672</v>
+        <v>1.052638216721214</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043687443448313</v>
+        <v>1.032598695706755</v>
       </c>
       <c r="J5">
-        <v>1.024943421053534</v>
+        <v>1.035642461752535</v>
       </c>
       <c r="K5">
-        <v>1.030772899495069</v>
+        <v>1.035783805812234</v>
       </c>
       <c r="L5">
-        <v>1.032396698565644</v>
+        <v>1.047189558555678</v>
       </c>
       <c r="M5">
-        <v>1.038886351765107</v>
+        <v>1.0550299462059</v>
       </c>
       <c r="N5">
-        <v>1.012170859338743</v>
+        <v>1.015866318028738</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.006334996816902</v>
+        <v>1.031226922199764</v>
       </c>
       <c r="D6">
-        <v>1.021271014607827</v>
+        <v>1.033374335324964</v>
       </c>
       <c r="E6">
-        <v>1.022957458720911</v>
+        <v>1.044820010607174</v>
       </c>
       <c r="F6">
-        <v>1.029533596973059</v>
+        <v>1.052682781262709</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043725280599975</v>
+        <v>1.032604464542615</v>
       </c>
       <c r="J6">
-        <v>1.025051446686307</v>
+        <v>1.035667698129706</v>
       </c>
       <c r="K6">
-        <v>1.030864323978739</v>
+        <v>1.03580430624837</v>
       </c>
       <c r="L6">
-        <v>1.032532048687499</v>
+        <v>1.047221954602293</v>
       </c>
       <c r="M6">
-        <v>1.039035911508254</v>
+        <v>1.055065851114835</v>
       </c>
       <c r="N6">
-        <v>1.01220746706983</v>
+        <v>1.015874780185652</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.005036391655401</v>
+        <v>1.030940227454827</v>
       </c>
       <c r="D7">
-        <v>1.020377661051445</v>
+        <v>1.0331728642011</v>
       </c>
       <c r="E7">
-        <v>1.021758586699826</v>
+        <v>1.044537337590069</v>
       </c>
       <c r="F7">
-        <v>1.028237998955329</v>
+        <v>1.052376427476507</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043463410889426</v>
+        <v>1.032564697541873</v>
       </c>
       <c r="J7">
-        <v>1.024306093698537</v>
+        <v>1.035494164234995</v>
       </c>
       <c r="K7">
-        <v>1.030233291513494</v>
+        <v>1.035663306354901</v>
       </c>
       <c r="L7">
-        <v>1.031598394356443</v>
+        <v>1.046999217409553</v>
       </c>
       <c r="M7">
-        <v>1.038004264034337</v>
+        <v>1.054818992106288</v>
       </c>
       <c r="N7">
-        <v>1.011954857164766</v>
+        <v>1.015816586226825</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9995030003791807</v>
+        <v>1.029743062622312</v>
       </c>
       <c r="D8">
-        <v>1.01657508395984</v>
+        <v>1.032331275752077</v>
       </c>
       <c r="E8">
-        <v>1.016661312007464</v>
+        <v>1.043357707979191</v>
       </c>
       <c r="F8">
-        <v>1.022728544365733</v>
+        <v>1.05109793230698</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042326012024658</v>
+        <v>1.032396005649348</v>
       </c>
       <c r="J8">
-        <v>1.021125629367732</v>
+        <v>1.034768733451368</v>
       </c>
       <c r="K8">
-        <v>1.02753512004658</v>
+        <v>1.035073084763491</v>
       </c>
       <c r="L8">
-        <v>1.027620227411658</v>
+        <v>1.046068822308998</v>
       </c>
       <c r="M8">
-        <v>1.033609198656479</v>
+        <v>1.05378791642116</v>
       </c>
       <c r="N8">
-        <v>1.010876359271557</v>
+        <v>1.015573184132926</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9893251531935399</v>
+        <v>1.027638001912638</v>
       </c>
       <c r="D9">
-        <v>1.009600253270291</v>
+        <v>1.030850381192037</v>
       </c>
       <c r="E9">
-        <v>1.007330675578396</v>
+        <v>1.041286299691488</v>
       </c>
       <c r="F9">
-        <v>1.012639408196307</v>
+        <v>1.048852748903701</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040154007491106</v>
+        <v>1.032089467317851</v>
       </c>
       <c r="J9">
-        <v>1.015260582286294</v>
+        <v>1.033490171388289</v>
       </c>
       <c r="K9">
-        <v>1.0225394698952</v>
+        <v>1.034029849708425</v>
       </c>
       <c r="L9">
-        <v>1.020305926879901</v>
+        <v>1.044431728765801</v>
       </c>
       <c r="M9">
-        <v>1.025530695041312</v>
+        <v>1.051973961622748</v>
       </c>
       <c r="N9">
-        <v>1.00888546983571</v>
+        <v>1.015143699316</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9822223526099849</v>
+        <v>1.026237720363876</v>
       </c>
       <c r="D10">
-        <v>1.004749890590604</v>
+        <v>1.029864616054513</v>
       </c>
       <c r="E10">
-        <v>1.000851939188137</v>
+        <v>1.039910322462982</v>
       </c>
       <c r="F10">
-        <v>1.00563085439618</v>
+        <v>1.047361216997683</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038586780079262</v>
+        <v>1.031878902017138</v>
       </c>
       <c r="J10">
-        <v>1.011159504639341</v>
+        <v>1.032637683734649</v>
       </c>
       <c r="K10">
-        <v>1.019033910638096</v>
+        <v>1.033332279814854</v>
       </c>
       <c r="L10">
-        <v>1.015205828627914</v>
+        <v>1.043342007847631</v>
       </c>
       <c r="M10">
-        <v>1.01989918087676</v>
+        <v>1.050766708412377</v>
       </c>
       <c r="N10">
-        <v>1.00749220408923</v>
+        <v>1.014857010974872</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9790641432582394</v>
+        <v>1.025632130679679</v>
       </c>
       <c r="D11">
-        <v>1.00259821603935</v>
+        <v>1.029438143372064</v>
       </c>
       <c r="E11">
-        <v>0.9979795599995648</v>
+        <v>1.039315704191871</v>
       </c>
       <c r="F11">
-        <v>1.002522725265694</v>
+        <v>1.046716632403923</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037878323126483</v>
+        <v>1.031786259955017</v>
       </c>
       <c r="J11">
-        <v>1.009334580984881</v>
+        <v>1.032268533329154</v>
       </c>
       <c r="K11">
-        <v>1.01747129958869</v>
+        <v>1.033029744507151</v>
       </c>
       <c r="L11">
-        <v>1.012939679710029</v>
+        <v>1.042870559246349</v>
       </c>
       <c r="M11">
-        <v>1.017397222982487</v>
+        <v>1.050244457035098</v>
       </c>
       <c r="N11">
-        <v>1.006871997304438</v>
+        <v>1.014732790235129</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9778779576718624</v>
+        <v>1.025407300214346</v>
       </c>
       <c r="D12">
-        <v>1.00179090793871</v>
+        <v>1.029279789578506</v>
       </c>
       <c r="E12">
-        <v>0.9969020327821844</v>
+        <v>1.039095016568628</v>
       </c>
       <c r="F12">
-        <v>1.001356622742355</v>
+        <v>1.046477395522235</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037610545550476</v>
+        <v>1.031751628883922</v>
       </c>
       <c r="J12">
-        <v>1.008648994199441</v>
+        <v>1.032131412805968</v>
       </c>
       <c r="K12">
-        <v>1.016883877222841</v>
+        <v>1.032917297933039</v>
       </c>
       <c r="L12">
-        <v>1.012088826606157</v>
+        <v>1.042695504719389</v>
       </c>
       <c r="M12">
-        <v>1.016457878072815</v>
+        <v>1.050050545617348</v>
       </c>
       <c r="N12">
-        <v>1.006638969208951</v>
+        <v>1.014686637084511</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9781330019093775</v>
+        <v>1.025455522003297</v>
       </c>
       <c r="D13">
-        <v>1.001964449829733</v>
+        <v>1.029313754393904</v>
       </c>
       <c r="E13">
-        <v>0.9971336544003447</v>
+        <v>1.039142346640716</v>
       </c>
       <c r="F13">
-        <v>1.001607290577139</v>
+        <v>1.046528703999949</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037668196436091</v>
+        <v>1.031759067298563</v>
       </c>
       <c r="J13">
-        <v>1.008796410472901</v>
+        <v>1.032160825680825</v>
       </c>
       <c r="K13">
-        <v>1.017010202836944</v>
+        <v>1.032941421322874</v>
       </c>
       <c r="L13">
-        <v>1.012271756606861</v>
+        <v>1.042733051663011</v>
       </c>
       <c r="M13">
-        <v>1.016659831433282</v>
+        <v>1.050092136814878</v>
       </c>
       <c r="N13">
-        <v>1.006689076624613</v>
+        <v>1.014696537630229</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9789663637638605</v>
+        <v>1.025613543821724</v>
       </c>
       <c r="D14">
-        <v>1.002531650655002</v>
+        <v>1.029425052623349</v>
       </c>
       <c r="E14">
-        <v>0.9978907106089315</v>
+        <v>1.039297458402148</v>
       </c>
       <c r="F14">
-        <v>1.00242657509459</v>
+        <v>1.046696853113358</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037856283756102</v>
+        <v>1.031783401818184</v>
       </c>
       <c r="J14">
-        <v>1.009278069924505</v>
+        <v>1.03225719893119</v>
       </c>
       <c r="K14">
-        <v>1.017422887571746</v>
+        <v>1.033020451090475</v>
       </c>
       <c r="L14">
-        <v>1.012869536209238</v>
+        <v>1.042856087903038</v>
       </c>
       <c r="M14">
-        <v>1.017319783390018</v>
+        <v>1.050228426699007</v>
       </c>
       <c r="N14">
-        <v>1.006852789993627</v>
+        <v>1.014728975444526</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9794780707226125</v>
+        <v>1.025710921221039</v>
       </c>
       <c r="D15">
-        <v>1.002880040150841</v>
+        <v>1.029493634754751</v>
       </c>
       <c r="E15">
-        <v>0.9983557373517218</v>
+        <v>1.039393051783249</v>
       </c>
       <c r="F15">
-        <v>1.002929807556702</v>
+        <v>1.046800480623166</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037971553270609</v>
+        <v>1.031798366025037</v>
       </c>
       <c r="J15">
-        <v>1.009573801276186</v>
+        <v>1.032316577486567</v>
       </c>
       <c r="K15">
-        <v>1.017676219940827</v>
+        <v>1.033069134497313</v>
       </c>
       <c r="L15">
-        <v>1.013236628348307</v>
+        <v>1.042931902906132</v>
       </c>
       <c r="M15">
-        <v>1.017725061066104</v>
+        <v>1.050312409503841</v>
       </c>
       <c r="N15">
-        <v>1.006953303745502</v>
+        <v>1.014748959869514</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9824301551466035</v>
+        <v>1.026277927073262</v>
       </c>
       <c r="D16">
-        <v>1.004891576845626</v>
+        <v>1.029892927571719</v>
       </c>
       <c r="E16">
-        <v>1.001041112936824</v>
+        <v>1.039949810492986</v>
       </c>
       <c r="F16">
-        <v>1.005835535961529</v>
+        <v>1.047404022594614</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038633157453318</v>
+        <v>1.03188501952785</v>
       </c>
       <c r="J16">
-        <v>1.011279554534587</v>
+        <v>1.032662182747139</v>
       </c>
       <c r="K16">
-        <v>1.019136650596897</v>
+        <v>1.033352348002831</v>
       </c>
       <c r="L16">
-        <v>1.0153549726223</v>
+        <v>1.04337330503309</v>
       </c>
       <c r="M16">
-        <v>1.020063850805559</v>
+        <v>1.050801379102738</v>
       </c>
       <c r="N16">
-        <v>1.007532999207821</v>
+        <v>1.014865253386174</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9842593336363571</v>
+        <v>1.026633794158239</v>
       </c>
       <c r="D17">
-        <v>1.006139347720092</v>
+        <v>1.030143493589429</v>
       </c>
       <c r="E17">
-        <v>1.002707268264861</v>
+        <v>1.040299369862037</v>
       </c>
       <c r="F17">
-        <v>1.007638178600997</v>
+        <v>1.047782946505085</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039040078364278</v>
+        <v>1.031938982906446</v>
       </c>
       <c r="J17">
-        <v>1.012336136540899</v>
+        <v>1.032878967798441</v>
       </c>
       <c r="K17">
-        <v>1.02004058146716</v>
+        <v>1.033529871808017</v>
       </c>
       <c r="L17">
-        <v>1.016667995190689</v>
+        <v>1.043650294948656</v>
       </c>
       <c r="M17">
-        <v>1.021513595319276</v>
+        <v>1.05110823084886</v>
       </c>
       <c r="N17">
-        <v>1.007892020018315</v>
+        <v>1.014938179353845</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9853183354544246</v>
+        <v>1.026841436874193</v>
       </c>
       <c r="D18">
-        <v>1.006862213541965</v>
+        <v>1.030289680116932</v>
       </c>
       <c r="E18">
-        <v>1.003672676937353</v>
+        <v>1.040503376546796</v>
       </c>
       <c r="F18">
-        <v>1.008682590663109</v>
+        <v>1.048004087746864</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039274559697583</v>
+        <v>1.031970317357386</v>
       </c>
       <c r="J18">
-        <v>1.012947707261122</v>
+        <v>1.033005413081913</v>
       </c>
       <c r="K18">
-        <v>1.02056353828979</v>
+        <v>1.033633371771872</v>
       </c>
       <c r="L18">
-        <v>1.017428314907251</v>
+        <v>1.043811897740215</v>
       </c>
       <c r="M18">
-        <v>1.022353115630985</v>
+        <v>1.051287260169381</v>
       </c>
       <c r="N18">
-        <v>1.008099806998368</v>
+        <v>1.014980707821379</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9856781027296275</v>
+        <v>1.026912249762547</v>
       </c>
       <c r="D19">
-        <v>1.007107864920469</v>
+        <v>1.030339531937908</v>
       </c>
       <c r="E19">
-        <v>1.004000780848094</v>
+        <v>1.040572956951497</v>
       </c>
       <c r="F19">
-        <v>1.009037531294636</v>
+        <v>1.048079511732031</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039354029356458</v>
+        <v>1.031980977582101</v>
       </c>
       <c r="J19">
-        <v>1.013155447401114</v>
+        <v>1.033048527324771</v>
       </c>
       <c r="K19">
-        <v>1.020741133657934</v>
+        <v>1.033668654636698</v>
       </c>
       <c r="L19">
-        <v>1.017686636356951</v>
+        <v>1.043867006738192</v>
       </c>
       <c r="M19">
-        <v>1.02263835098018</v>
+        <v>1.051348312624543</v>
       </c>
       <c r="N19">
-        <v>1.008170384926287</v>
+        <v>1.01499520755795</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9840639047193815</v>
+        <v>1.026595605587802</v>
       </c>
       <c r="D20">
-        <v>1.006005986935467</v>
+        <v>1.030116606532754</v>
       </c>
       <c r="E20">
-        <v>1.002529174499992</v>
+        <v>1.04026185358387</v>
       </c>
       <c r="F20">
-        <v>1.007445504249288</v>
+        <v>1.047742278994774</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038996717329798</v>
+        <v>1.031933207776056</v>
       </c>
       <c r="J20">
-        <v>1.012223265497929</v>
+        <v>1.032855708989679</v>
       </c>
       <c r="K20">
-        <v>1.019944044063597</v>
+        <v>1.033510830003199</v>
       </c>
       <c r="L20">
-        <v>1.01652769673454</v>
+        <v>1.043620572482475</v>
       </c>
       <c r="M20">
-        <v>1.021358684788503</v>
+        <v>1.051075303597824</v>
       </c>
       <c r="N20">
-        <v>1.007853669243489</v>
+        <v>1.014930355913861</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9787213263035051</v>
+        <v>1.025567007220096</v>
       </c>
       <c r="D21">
-        <v>1.002364850151595</v>
+        <v>1.029392276478838</v>
       </c>
       <c r="E21">
-        <v>0.9976680733601196</v>
+        <v>1.039251776871762</v>
       </c>
       <c r="F21">
-        <v>1.002185641429684</v>
+        <v>1.046647332119052</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037801025595193</v>
+        <v>1.031776241968616</v>
       </c>
       <c r="J21">
-        <v>1.009136449482298</v>
+        <v>1.032228819447676</v>
       </c>
       <c r="K21">
-        <v>1.017301557803486</v>
+        <v>1.032997180758608</v>
       </c>
       <c r="L21">
-        <v>1.012693759894126</v>
+        <v>1.042819855062569</v>
       </c>
       <c r="M21">
-        <v>1.017125724138583</v>
+        <v>1.050188290616775</v>
       </c>
       <c r="N21">
-        <v>1.006804654754881</v>
+        <v>1.014719423645756</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9752861590150647</v>
+        <v>1.02492093808698</v>
       </c>
       <c r="D22">
-        <v>1.000028581249897</v>
+        <v>1.028937192835857</v>
       </c>
       <c r="E22">
-        <v>0.9945501060256819</v>
+        <v>1.038617744148995</v>
       </c>
       <c r="F22">
-        <v>0.9988110987586246</v>
+        <v>1.04595999866652</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037022409754107</v>
+        <v>1.031676280582987</v>
       </c>
       <c r="J22">
-        <v>1.007150739779136</v>
+        <v>1.031834660209722</v>
       </c>
       <c r="K22">
-        <v>1.015599471961415</v>
+        <v>1.032673815997865</v>
       </c>
       <c r="L22">
-        <v>1.010230305044669</v>
+        <v>1.042316774303164</v>
       </c>
       <c r="M22">
-        <v>1.014406144864295</v>
+        <v>1.049631030687736</v>
       </c>
       <c r="N22">
-        <v>1.006129670434529</v>
+        <v>1.014586732713903</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9771146525735991</v>
+        <v>1.025263369433115</v>
       </c>
       <c r="D23">
-        <v>1.001271654809483</v>
+        <v>1.029178409357281</v>
       </c>
       <c r="E23">
-        <v>0.9962090227937564</v>
+        <v>1.038953757580302</v>
       </c>
       <c r="F23">
-        <v>1.000606605744522</v>
+        <v>1.046324262087257</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037437762620377</v>
+        <v>1.031729392273451</v>
       </c>
       <c r="J23">
-        <v>1.008207780738736</v>
+        <v>1.032043611981732</v>
       </c>
       <c r="K23">
-        <v>1.016505733514019</v>
+        <v>1.032845276576404</v>
       </c>
       <c r="L23">
-        <v>1.011541393147634</v>
+        <v>1.042583432206667</v>
       </c>
       <c r="M23">
-        <v>1.01585352211317</v>
+        <v>1.04992640254822</v>
       </c>
       <c r="N23">
-        <v>1.006488994982419</v>
+        <v>1.014657081135578</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9841522350831694</v>
+        <v>1.02661286113825</v>
       </c>
       <c r="D24">
-        <v>1.006066262167667</v>
+        <v>1.030128755526481</v>
       </c>
       <c r="E24">
-        <v>1.002609667243912</v>
+        <v>1.040278805221104</v>
       </c>
       <c r="F24">
-        <v>1.00753258720563</v>
+        <v>1.047760654517409</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039016319169766</v>
+        <v>1.031935817746083</v>
       </c>
       <c r="J24">
-        <v>1.012274281611524</v>
+        <v>1.032866218649765</v>
       </c>
       <c r="K24">
-        <v>1.019987678399941</v>
+        <v>1.033519434319462</v>
       </c>
       <c r="L24">
-        <v>1.016591108670151</v>
+        <v>1.04363400266437</v>
       </c>
       <c r="M24">
-        <v>1.021428700978805</v>
+        <v>1.05109018185739</v>
       </c>
       <c r="N24">
-        <v>1.007871003317551</v>
+        <v>1.014933891014444</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9920100107822291</v>
+        <v>1.028181670597292</v>
       </c>
       <c r="D25">
-        <v>1.011437510347048</v>
+        <v>1.031232970607396</v>
       </c>
       <c r="E25">
-        <v>1.009786556204919</v>
+        <v>1.041820940259832</v>
       </c>
       <c r="F25">
-        <v>1.015295442427256</v>
+        <v>1.049432262478716</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040736040864301</v>
+        <v>1.032169811244724</v>
       </c>
       <c r="J25">
-        <v>1.016809294675911</v>
+        <v>1.033820734785732</v>
       </c>
       <c r="K25">
-        <v>1.023860830887725</v>
+        <v>1.034299922279045</v>
       </c>
       <c r="L25">
-        <v>1.022234824642927</v>
+        <v>1.044854666890626</v>
       </c>
       <c r="M25">
-        <v>1.02766086738168</v>
+        <v>1.052442556848045</v>
       </c>
       <c r="N25">
-        <v>1.009411395908876</v>
+        <v>1.015254797572009</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_187/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_187/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.029435166089484</v>
+        <v>0.9980505292557295</v>
       </c>
       <c r="D2">
-        <v>1.03211475504626</v>
+        <v>1.015578096078526</v>
       </c>
       <c r="E2">
-        <v>1.043054511913578</v>
+        <v>1.015326239839228</v>
       </c>
       <c r="F2">
-        <v>1.050769313958604</v>
+        <v>1.021285262984616</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032351946200911</v>
+        <v>1.042022035679469</v>
       </c>
       <c r="J2">
-        <v>1.034581957923013</v>
+        <v>1.020289705414919</v>
       </c>
       <c r="K2">
-        <v>1.034920918727935</v>
+        <v>1.026824586927964</v>
       </c>
       <c r="L2">
-        <v>1.045829459470927</v>
+        <v>1.026576106534664</v>
       </c>
       <c r="M2">
-        <v>1.053522671487985</v>
+        <v>1.032455815702658</v>
       </c>
       <c r="N2">
-        <v>1.015510482260581</v>
+        <v>1.010592752394285</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.030346582390139</v>
+        <v>1.002315021195713</v>
       </c>
       <c r="D3">
-        <v>1.032755599385765</v>
+        <v>1.01850667616073</v>
       </c>
       <c r="E3">
-        <v>1.043952239349654</v>
+        <v>1.019249472050056</v>
       </c>
       <c r="F3">
-        <v>1.051742300405804</v>
+        <v>1.025526179185257</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.032481573572191</v>
+        <v>1.042908253907309</v>
       </c>
       <c r="J3">
-        <v>1.035134599675472</v>
+        <v>1.022742774733114</v>
       </c>
       <c r="K3">
-        <v>1.035370917438684</v>
+        <v>1.028908112484476</v>
       </c>
       <c r="L3">
-        <v>1.046537916838256</v>
+        <v>1.029641837098282</v>
       </c>
       <c r="M3">
-        <v>1.054307757285233</v>
+        <v>1.035842542129733</v>
       </c>
       <c r="N3">
-        <v>1.015695968578231</v>
+        <v>1.011424849279279</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.030936910044096</v>
+        <v>1.005021305822919</v>
       </c>
       <c r="D4">
-        <v>1.03317053276797</v>
+        <v>1.020367285012984</v>
       </c>
       <c r="E4">
-        <v>1.044534067121263</v>
+        <v>1.02174466540694</v>
       </c>
       <c r="F4">
-        <v>1.052372883002963</v>
+        <v>1.028222953997342</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.032564235942723</v>
+        <v>1.04346035695065</v>
       </c>
       <c r="J4">
-        <v>1.035492155796342</v>
+        <v>1.024297432436673</v>
       </c>
       <c r="K4">
-        <v>1.035661674020689</v>
+        <v>1.030225955653536</v>
       </c>
       <c r="L4">
-        <v>1.046996639900349</v>
+        <v>1.031587548123584</v>
       </c>
       <c r="M4">
-        <v>1.0548161355033</v>
+        <v>1.037992279768998</v>
       </c>
       <c r="N4">
-        <v>1.015815912631947</v>
+        <v>1.011951921415323</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.0311852215589</v>
+        <v>1.006146739906566</v>
       </c>
       <c r="D5">
-        <v>1.033345032480929</v>
+        <v>1.02114148551121</v>
       </c>
       <c r="E5">
-        <v>1.04477889062356</v>
+        <v>1.022783597052672</v>
       </c>
       <c r="F5">
-        <v>1.052638216721214</v>
+        <v>1.029345713094671</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.032598695706755</v>
+        <v>1.043687443448313</v>
       </c>
       <c r="J5">
-        <v>1.035642461752535</v>
+        <v>1.024943421053533</v>
       </c>
       <c r="K5">
-        <v>1.035783805812234</v>
+        <v>1.030772899495068</v>
       </c>
       <c r="L5">
-        <v>1.047189558555678</v>
+        <v>1.032396698565644</v>
       </c>
       <c r="M5">
-        <v>1.0550299462059</v>
+        <v>1.038886351765107</v>
       </c>
       <c r="N5">
-        <v>1.015866318028738</v>
+        <v>1.012170859338743</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.031226922199764</v>
+        <v>1.006334996816903</v>
       </c>
       <c r="D6">
-        <v>1.033374335324964</v>
+        <v>1.021271014607827</v>
       </c>
       <c r="E6">
-        <v>1.044820010607174</v>
+        <v>1.022957458720912</v>
       </c>
       <c r="F6">
-        <v>1.052682781262709</v>
+        <v>1.029533596973059</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.032604464542615</v>
+        <v>1.043725280599975</v>
       </c>
       <c r="J6">
-        <v>1.035667698129706</v>
+        <v>1.025051446686307</v>
       </c>
       <c r="K6">
-        <v>1.03580430624837</v>
+        <v>1.030864323978739</v>
       </c>
       <c r="L6">
-        <v>1.047221954602293</v>
+        <v>1.032532048687499</v>
       </c>
       <c r="M6">
-        <v>1.055065851114835</v>
+        <v>1.039035911508254</v>
       </c>
       <c r="N6">
-        <v>1.015874780185652</v>
+        <v>1.01220746706983</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.030940227454827</v>
+        <v>1.005036391655401</v>
       </c>
       <c r="D7">
-        <v>1.0331728642011</v>
+        <v>1.020377661051444</v>
       </c>
       <c r="E7">
-        <v>1.044537337590069</v>
+        <v>1.021758586699825</v>
       </c>
       <c r="F7">
-        <v>1.052376427476507</v>
+        <v>1.028237998955329</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.032564697541873</v>
+        <v>1.043463410889426</v>
       </c>
       <c r="J7">
-        <v>1.035494164234995</v>
+        <v>1.024306093698537</v>
       </c>
       <c r="K7">
-        <v>1.035663306354901</v>
+        <v>1.030233291513493</v>
       </c>
       <c r="L7">
-        <v>1.046999217409553</v>
+        <v>1.031598394356443</v>
       </c>
       <c r="M7">
-        <v>1.054818992106288</v>
+        <v>1.038004264034336</v>
       </c>
       <c r="N7">
-        <v>1.015816586226825</v>
+        <v>1.011954857164766</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.029743062622312</v>
+        <v>0.9995030003791801</v>
       </c>
       <c r="D8">
-        <v>1.032331275752077</v>
+        <v>1.01657508395984</v>
       </c>
       <c r="E8">
-        <v>1.043357707979191</v>
+        <v>1.016661312007463</v>
       </c>
       <c r="F8">
-        <v>1.05109793230698</v>
+        <v>1.022728544365732</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.032396005649348</v>
+        <v>1.042326012024658</v>
       </c>
       <c r="J8">
-        <v>1.034768733451368</v>
+        <v>1.021125629367731</v>
       </c>
       <c r="K8">
-        <v>1.035073084763491</v>
+        <v>1.02753512004658</v>
       </c>
       <c r="L8">
-        <v>1.046068822308998</v>
+        <v>1.027620227411657</v>
       </c>
       <c r="M8">
-        <v>1.05378791642116</v>
+        <v>1.033609198656478</v>
       </c>
       <c r="N8">
-        <v>1.015573184132926</v>
+        <v>1.010876359271557</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.027638001912638</v>
+        <v>0.9893251531935399</v>
       </c>
       <c r="D9">
-        <v>1.030850381192037</v>
+        <v>1.009600253270291</v>
       </c>
       <c r="E9">
-        <v>1.041286299691488</v>
+        <v>1.007330675578396</v>
       </c>
       <c r="F9">
-        <v>1.048852748903701</v>
+        <v>1.012639408196307</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032089467317851</v>
+        <v>1.040154007491106</v>
       </c>
       <c r="J9">
-        <v>1.033490171388289</v>
+        <v>1.015260582286294</v>
       </c>
       <c r="K9">
-        <v>1.034029849708425</v>
+        <v>1.0225394698952</v>
       </c>
       <c r="L9">
-        <v>1.044431728765801</v>
+        <v>1.0203059268799</v>
       </c>
       <c r="M9">
-        <v>1.051973961622748</v>
+        <v>1.025530695041312</v>
       </c>
       <c r="N9">
-        <v>1.015143699316</v>
+        <v>1.00888546983571</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.026237720363876</v>
+        <v>0.9822223526099838</v>
       </c>
       <c r="D10">
-        <v>1.029864616054513</v>
+        <v>1.004749890590603</v>
       </c>
       <c r="E10">
-        <v>1.039910322462982</v>
+        <v>1.000851939188136</v>
       </c>
       <c r="F10">
-        <v>1.047361216997683</v>
+        <v>1.005630854396179</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031878902017138</v>
+        <v>1.038586780079261</v>
       </c>
       <c r="J10">
-        <v>1.032637683734649</v>
+        <v>1.01115950463934</v>
       </c>
       <c r="K10">
-        <v>1.033332279814854</v>
+        <v>1.019033910638095</v>
       </c>
       <c r="L10">
-        <v>1.043342007847631</v>
+        <v>1.015205828627913</v>
       </c>
       <c r="M10">
-        <v>1.050766708412377</v>
+        <v>1.019899180876759</v>
       </c>
       <c r="N10">
-        <v>1.014857010974872</v>
+        <v>1.00749220408923</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.025632130679679</v>
+        <v>0.979064143258239</v>
       </c>
       <c r="D11">
-        <v>1.029438143372064</v>
+        <v>1.00259821603935</v>
       </c>
       <c r="E11">
-        <v>1.039315704191871</v>
+        <v>0.9979795599995642</v>
       </c>
       <c r="F11">
-        <v>1.046716632403923</v>
+        <v>1.002522725265693</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031786259955017</v>
+        <v>1.037878323126483</v>
       </c>
       <c r="J11">
-        <v>1.032268533329154</v>
+        <v>1.009334580984881</v>
       </c>
       <c r="K11">
-        <v>1.033029744507151</v>
+        <v>1.01747129958869</v>
       </c>
       <c r="L11">
-        <v>1.042870559246349</v>
+        <v>1.012939679710028</v>
       </c>
       <c r="M11">
-        <v>1.050244457035098</v>
+        <v>1.017397222982486</v>
       </c>
       <c r="N11">
-        <v>1.014732790235129</v>
+        <v>1.006871997304438</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.025407300214346</v>
+        <v>0.9778779576718625</v>
       </c>
       <c r="D12">
-        <v>1.029279789578506</v>
+        <v>1.00179090793871</v>
       </c>
       <c r="E12">
-        <v>1.039095016568628</v>
+        <v>0.9969020327821844</v>
       </c>
       <c r="F12">
-        <v>1.046477395522235</v>
+        <v>1.001356622742355</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031751628883922</v>
+        <v>1.037610545550476</v>
       </c>
       <c r="J12">
-        <v>1.032131412805968</v>
+        <v>1.008648994199441</v>
       </c>
       <c r="K12">
-        <v>1.032917297933039</v>
+        <v>1.016883877222841</v>
       </c>
       <c r="L12">
-        <v>1.042695504719389</v>
+        <v>1.012088826606157</v>
       </c>
       <c r="M12">
-        <v>1.050050545617348</v>
+        <v>1.016457878072815</v>
       </c>
       <c r="N12">
-        <v>1.014686637084511</v>
+        <v>1.006638969208951</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.025455522003297</v>
+        <v>0.978133001909377</v>
       </c>
       <c r="D13">
-        <v>1.029313754393904</v>
+        <v>1.001964449829733</v>
       </c>
       <c r="E13">
-        <v>1.039142346640716</v>
+        <v>0.9971336544003447</v>
       </c>
       <c r="F13">
-        <v>1.046528703999949</v>
+        <v>1.00160729057714</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031759067298563</v>
+        <v>1.037668196436091</v>
       </c>
       <c r="J13">
-        <v>1.032160825680825</v>
+        <v>1.008796410472901</v>
       </c>
       <c r="K13">
-        <v>1.032941421322874</v>
+        <v>1.017010202836943</v>
       </c>
       <c r="L13">
-        <v>1.042733051663011</v>
+        <v>1.012271756606861</v>
       </c>
       <c r="M13">
-        <v>1.050092136814878</v>
+        <v>1.016659831433282</v>
       </c>
       <c r="N13">
-        <v>1.014696537630229</v>
+        <v>1.006689076624613</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.025613543821724</v>
+        <v>0.9789663637638594</v>
       </c>
       <c r="D14">
-        <v>1.029425052623349</v>
+        <v>1.002531650655001</v>
       </c>
       <c r="E14">
-        <v>1.039297458402148</v>
+        <v>0.9978907106089302</v>
       </c>
       <c r="F14">
-        <v>1.046696853113358</v>
+        <v>1.002426575094589</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031783401818184</v>
+        <v>1.037856283756102</v>
       </c>
       <c r="J14">
-        <v>1.03225719893119</v>
+        <v>1.009278069924504</v>
       </c>
       <c r="K14">
-        <v>1.033020451090475</v>
+        <v>1.017422887571745</v>
       </c>
       <c r="L14">
-        <v>1.042856087903038</v>
+        <v>1.012869536209236</v>
       </c>
       <c r="M14">
-        <v>1.050228426699007</v>
+        <v>1.017319783390017</v>
       </c>
       <c r="N14">
-        <v>1.014728975444526</v>
+        <v>1.006852789993627</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.025710921221039</v>
+        <v>0.9794780707226128</v>
       </c>
       <c r="D15">
-        <v>1.029493634754751</v>
+        <v>1.002880040150841</v>
       </c>
       <c r="E15">
-        <v>1.039393051783249</v>
+        <v>0.9983557373517222</v>
       </c>
       <c r="F15">
-        <v>1.046800480623166</v>
+        <v>1.002929807556702</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031798366025037</v>
+        <v>1.037971553270609</v>
       </c>
       <c r="J15">
-        <v>1.032316577486567</v>
+        <v>1.009573801276186</v>
       </c>
       <c r="K15">
-        <v>1.033069134497313</v>
+        <v>1.017676219940827</v>
       </c>
       <c r="L15">
-        <v>1.042931902906132</v>
+        <v>1.013236628348307</v>
       </c>
       <c r="M15">
-        <v>1.050312409503841</v>
+        <v>1.017725061066104</v>
       </c>
       <c r="N15">
-        <v>1.014748959869514</v>
+        <v>1.006953303745502</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.026277927073262</v>
+        <v>0.9824301551466041</v>
       </c>
       <c r="D16">
-        <v>1.029892927571719</v>
+        <v>1.004891576845627</v>
       </c>
       <c r="E16">
-        <v>1.039949810492986</v>
+        <v>1.001041112936824</v>
       </c>
       <c r="F16">
-        <v>1.047404022594614</v>
+        <v>1.00583553596153</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03188501952785</v>
+        <v>1.038633157453319</v>
       </c>
       <c r="J16">
-        <v>1.032662182747139</v>
+        <v>1.011279554534588</v>
       </c>
       <c r="K16">
-        <v>1.033352348002831</v>
+        <v>1.019136650596898</v>
       </c>
       <c r="L16">
-        <v>1.04337330503309</v>
+        <v>1.0153549726223</v>
       </c>
       <c r="M16">
-        <v>1.050801379102738</v>
+        <v>1.02006385080556</v>
       </c>
       <c r="N16">
-        <v>1.014865253386174</v>
+        <v>1.007532999207822</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.026633794158239</v>
+        <v>0.9842593336363566</v>
       </c>
       <c r="D17">
-        <v>1.030143493589429</v>
+        <v>1.006139347720092</v>
       </c>
       <c r="E17">
-        <v>1.040299369862037</v>
+        <v>1.00270726826486</v>
       </c>
       <c r="F17">
-        <v>1.047782946505085</v>
+        <v>1.007638178600996</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031938982906446</v>
+        <v>1.039040078364277</v>
       </c>
       <c r="J17">
-        <v>1.032878967798441</v>
+        <v>1.012336136540899</v>
       </c>
       <c r="K17">
-        <v>1.033529871808017</v>
+        <v>1.020040581467159</v>
       </c>
       <c r="L17">
-        <v>1.043650294948656</v>
+        <v>1.016667995190688</v>
       </c>
       <c r="M17">
-        <v>1.05110823084886</v>
+        <v>1.021513595319275</v>
       </c>
       <c r="N17">
-        <v>1.014938179353845</v>
+        <v>1.007892020018314</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.026841436874193</v>
+        <v>0.985318335454425</v>
       </c>
       <c r="D18">
-        <v>1.030289680116932</v>
+        <v>1.006862213541966</v>
       </c>
       <c r="E18">
-        <v>1.040503376546796</v>
+        <v>1.003672676937353</v>
       </c>
       <c r="F18">
-        <v>1.048004087746864</v>
+        <v>1.008682590663109</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031970317357386</v>
+        <v>1.039274559697583</v>
       </c>
       <c r="J18">
-        <v>1.033005413081913</v>
+        <v>1.012947707261123</v>
       </c>
       <c r="K18">
-        <v>1.033633371771872</v>
+        <v>1.02056353828979</v>
       </c>
       <c r="L18">
-        <v>1.043811897740215</v>
+        <v>1.017428314907251</v>
       </c>
       <c r="M18">
-        <v>1.051287260169381</v>
+        <v>1.022353115630985</v>
       </c>
       <c r="N18">
-        <v>1.014980707821379</v>
+        <v>1.008099806998368</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.026912249762547</v>
+        <v>0.9856781027296264</v>
       </c>
       <c r="D19">
-        <v>1.030339531937908</v>
+        <v>1.007107864920469</v>
       </c>
       <c r="E19">
-        <v>1.040572956951497</v>
+        <v>1.004000780848093</v>
       </c>
       <c r="F19">
-        <v>1.048079511732031</v>
+        <v>1.009037531294635</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031980977582101</v>
+        <v>1.039354029356458</v>
       </c>
       <c r="J19">
-        <v>1.033048527324771</v>
+        <v>1.013155447401113</v>
       </c>
       <c r="K19">
-        <v>1.033668654636698</v>
+        <v>1.020741133657933</v>
       </c>
       <c r="L19">
-        <v>1.043867006738192</v>
+        <v>1.01768663635695</v>
       </c>
       <c r="M19">
-        <v>1.051348312624543</v>
+        <v>1.022638350980179</v>
       </c>
       <c r="N19">
-        <v>1.01499520755795</v>
+        <v>1.008170384926286</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.026595605587802</v>
+        <v>0.9840639047193819</v>
       </c>
       <c r="D20">
-        <v>1.030116606532754</v>
+        <v>1.006005986935467</v>
       </c>
       <c r="E20">
-        <v>1.04026185358387</v>
+        <v>1.002529174499992</v>
       </c>
       <c r="F20">
-        <v>1.047742278994774</v>
+        <v>1.007445504249288</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031933207776056</v>
+        <v>1.038996717329798</v>
       </c>
       <c r="J20">
-        <v>1.032855708989679</v>
+        <v>1.012223265497929</v>
       </c>
       <c r="K20">
-        <v>1.033510830003199</v>
+        <v>1.019944044063598</v>
       </c>
       <c r="L20">
-        <v>1.043620572482475</v>
+        <v>1.01652769673454</v>
       </c>
       <c r="M20">
-        <v>1.051075303597824</v>
+        <v>1.021358684788503</v>
       </c>
       <c r="N20">
-        <v>1.014930355913861</v>
+        <v>1.007853669243489</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C21">
-        <v>1.025567007220096</v>
+        <v>0.9787213263035051</v>
       </c>
       <c r="D21">
-        <v>1.029392276478838</v>
+        <v>1.002364850151595</v>
       </c>
       <c r="E21">
-        <v>1.039251776871762</v>
+        <v>0.9976680733601194</v>
       </c>
       <c r="F21">
-        <v>1.046647332119052</v>
+        <v>1.002185641429683</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031776241968616</v>
+        <v>1.037801025595193</v>
       </c>
       <c r="J21">
-        <v>1.032228819447676</v>
+        <v>1.009136449482298</v>
       </c>
       <c r="K21">
-        <v>1.032997180758608</v>
+        <v>1.017301557803485</v>
       </c>
       <c r="L21">
-        <v>1.042819855062569</v>
+        <v>1.012693759894125</v>
       </c>
       <c r="M21">
-        <v>1.050188290616775</v>
+        <v>1.017125724138582</v>
       </c>
       <c r="N21">
-        <v>1.014719423645756</v>
+        <v>1.006804654754881</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.02492093808698</v>
+        <v>0.9752861590150655</v>
       </c>
       <c r="D22">
-        <v>1.028937192835857</v>
+        <v>1.000028581249897</v>
       </c>
       <c r="E22">
-        <v>1.038617744148995</v>
+        <v>0.9945501060256825</v>
       </c>
       <c r="F22">
-        <v>1.04595999866652</v>
+        <v>0.9988110987586248</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031676280582987</v>
+        <v>1.037022409754107</v>
       </c>
       <c r="J22">
-        <v>1.031834660209722</v>
+        <v>1.007150739779137</v>
       </c>
       <c r="K22">
-        <v>1.032673815997865</v>
+        <v>1.015599471961416</v>
       </c>
       <c r="L22">
-        <v>1.042316774303164</v>
+        <v>1.010230305044669</v>
       </c>
       <c r="M22">
-        <v>1.049631030687736</v>
+        <v>1.014406144864296</v>
       </c>
       <c r="N22">
-        <v>1.014586732713903</v>
+        <v>1.006129670434529</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.025263369433115</v>
+        <v>0.977114652573599</v>
       </c>
       <c r="D23">
-        <v>1.029178409357281</v>
+        <v>1.001271654809483</v>
       </c>
       <c r="E23">
-        <v>1.038953757580302</v>
+        <v>0.9962090227937562</v>
       </c>
       <c r="F23">
-        <v>1.046324262087257</v>
+        <v>1.000606605744522</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031729392273451</v>
+        <v>1.037437762620377</v>
       </c>
       <c r="J23">
-        <v>1.032043611981732</v>
+        <v>1.008207780738736</v>
       </c>
       <c r="K23">
-        <v>1.032845276576404</v>
+        <v>1.016505733514019</v>
       </c>
       <c r="L23">
-        <v>1.042583432206667</v>
+        <v>1.011541393147634</v>
       </c>
       <c r="M23">
-        <v>1.04992640254822</v>
+        <v>1.01585352211317</v>
       </c>
       <c r="N23">
-        <v>1.014657081135578</v>
+        <v>1.006488994982419</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.02661286113825</v>
+        <v>0.984152235083169</v>
       </c>
       <c r="D24">
-        <v>1.030128755526481</v>
+        <v>1.006066262167667</v>
       </c>
       <c r="E24">
-        <v>1.040278805221104</v>
+        <v>1.002609667243912</v>
       </c>
       <c r="F24">
-        <v>1.047760654517409</v>
+        <v>1.00753258720563</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031935817746083</v>
+        <v>1.039016319169766</v>
       </c>
       <c r="J24">
-        <v>1.032866218649765</v>
+        <v>1.012274281611524</v>
       </c>
       <c r="K24">
-        <v>1.033519434319462</v>
+        <v>1.019987678399941</v>
       </c>
       <c r="L24">
-        <v>1.04363400266437</v>
+        <v>1.016591108670151</v>
       </c>
       <c r="M24">
-        <v>1.05109018185739</v>
+        <v>1.021428700978805</v>
       </c>
       <c r="N24">
-        <v>1.014933891014444</v>
+        <v>1.007871003317551</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.028181670597292</v>
+        <v>0.9920100107822283</v>
       </c>
       <c r="D25">
-        <v>1.031232970607396</v>
+        <v>1.011437510347047</v>
       </c>
       <c r="E25">
-        <v>1.041820940259832</v>
+        <v>1.009786556204918</v>
       </c>
       <c r="F25">
-        <v>1.049432262478716</v>
+        <v>1.015295442427255</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032169811244724</v>
+        <v>1.0407360408643</v>
       </c>
       <c r="J25">
-        <v>1.033820734785732</v>
+        <v>1.01680929467591</v>
       </c>
       <c r="K25">
-        <v>1.034299922279045</v>
+        <v>1.023860830887724</v>
       </c>
       <c r="L25">
-        <v>1.044854666890626</v>
+        <v>1.022234824642926</v>
       </c>
       <c r="M25">
-        <v>1.052442556848045</v>
+        <v>1.027660867381679</v>
       </c>
       <c r="N25">
-        <v>1.015254797572009</v>
+        <v>1.009411395908876</v>
       </c>
     </row>
   </sheetData>
